--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3003.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3003.xlsx
@@ -354,7 +354,7 @@
         <v>2.427602821124767</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.304526263489545</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3003.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3003.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.17839963124299</v>
+        <v>1.424225807189941</v>
       </c>
       <c r="B1">
-        <v>2.427602821124767</v>
+        <v>1.605999708175659</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.959909677505493</v>
       </c>
       <c r="D1">
-        <v>2.304526263489545</v>
+        <v>2.661046743392944</v>
       </c>
       <c r="E1">
-        <v>1.20111982109952</v>
+        <v>6.697809219360352</v>
       </c>
     </row>
   </sheetData>
